--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117709.365346534</v>
+        <v>1153028.120672303</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478708</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.16424083254473</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>208.6957123392361</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>64.56505458062006</v>
       </c>
     </row>
     <row r="4">
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>33.60023339142367</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.4269621631669</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>72.96662155595598</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>230.6992324161051</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>226.2607303200542</v>
       </c>
       <c r="X9" t="n">
-        <v>65.88553544856782</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86276637918397</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.491513877921593</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>43.76331341951682</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3677099213027</v>
+        <v>92.23683576037105</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>47.47529300550341</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8569501761503</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -1666,13 +1666,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>84.43209919961181</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -1736,7 +1736,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>137.0522704600475</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.4665668086332</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>55.79392308257763</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>90.51206582944629</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>260.6553241237581</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>159.3388108552989</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>123.4811043909671</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>47.47529300550341</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2032194638927</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>233.9808435926316</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>212.0689057555123</v>
       </c>
       <c r="X21" t="n">
-        <v>64.42655098606885</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>35.18734422379109</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>216.0507555458581</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>185.4566515900327</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>54.55879030882561</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>46.76920729529187</v>
       </c>
       <c r="X25" t="n">
-        <v>47.23959131629378</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>101.2361603550464</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>270.9778135312718</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.1147972906602</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>47.47529300550307</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>40.56067282526028</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>194.5012049355149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>175.6262265852949</v>
       </c>
       <c r="U30" t="n">
-        <v>84.54929467357414</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>47.47529300550303</v>
       </c>
       <c r="X31" t="n">
-        <v>47.23959131629378</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.19205916500874</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>100.5037914962889</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>141.6059242355807</v>
       </c>
       <c r="U34" t="n">
-        <v>280.5358453135914</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>119.0026765484992</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.00497045741488</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>73.66757925108466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>47.47529300550303</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>302.8741910601337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6327173079948</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.08993799274015</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>269.8755469337119</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>21.27530561993947</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>114.2292925862757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>105.5255478677685</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
@@ -3869,7 +3869,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>31.51871451439819</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>73.66757925108487</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>362.2512785216787</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>323.1708176523008</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.6360092824242</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>35.18734422379114</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>82.32787816303323</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E2" t="n">
-        <v>82.32787816303323</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>753.253405673024</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.32787816303323</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.2068788942177</v>
+        <v>456.0377176450116</v>
       </c>
       <c r="C3" t="n">
-        <v>668.2068788942177</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>668.2068788942177</v>
+        <v>624.2530546650796</v>
       </c>
     </row>
     <row r="4">
@@ -4509,25 +4509,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
         <v>41.77557929797318</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>297.2027203719481</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>297.2027203719481</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.2027203719481</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.3006591534979</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C6" t="n">
-        <v>305.3006591534979</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>768.6763856488515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>540.4527673852406</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>305.3006591534979</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>305.3006591534979</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="X6" t="n">
-        <v>305.3006591534979</v>
+        <v>682.5019971677741</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.3006591534979</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>540.6514970160482</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>729.290772582924</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>554.837743301797</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>554.837743301797</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X9" t="n">
-        <v>897.506109602992</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y9" t="n">
-        <v>897.506109602992</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>41.77557929797318</v>
@@ -4995,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1639.940887950406</v>
+        <v>1365.955863431131</v>
       </c>
       <c r="C11" t="n">
-        <v>1270.978371009995</v>
+        <v>1365.955863431131</v>
       </c>
       <c r="D11" t="n">
-        <v>1270.978371009995</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E11" t="n">
-        <v>1270.978371009995</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F11" t="n">
-        <v>859.9924662203871</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G11" t="n">
-        <v>441.8048002909608</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H11" t="n">
-        <v>112.3174963499208</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5053,7 +5053,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5068,25 +5068,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>1971.003775293977</v>
+        <v>2142.695035471064</v>
       </c>
       <c r="V11" t="n">
-        <v>1639.940887950406</v>
+        <v>2142.695035471064</v>
       </c>
       <c r="W11" t="n">
-        <v>1639.940887950406</v>
+        <v>2142.695035471064</v>
       </c>
       <c r="X11" t="n">
-        <v>1639.940887950406</v>
+        <v>2142.695035471064</v>
       </c>
       <c r="Y11" t="n">
-        <v>1639.940887950406</v>
+        <v>1752.555703495252</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>93.02511962298431</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5123,22 +5123,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5147,25 +5147,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="G13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>592.6833282610578</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>303.5042407384502</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1551.245491941685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C14" t="n">
-        <v>1182.282975001274</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D14" t="n">
-        <v>1182.282975001274</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E14" t="n">
-        <v>796.4947224030295</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2239.718290343187</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2020.103685674874</v>
       </c>
       <c r="U14" t="n">
-        <v>1967.593327971733</v>
+        <v>1766.323991686756</v>
       </c>
       <c r="V14" t="n">
-        <v>1636.530440628162</v>
+        <v>1766.323991686756</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.245491941685</v>
+        <v>1413.555336416642</v>
       </c>
       <c r="X14" t="n">
-        <v>1551.245491941685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="Y14" t="n">
-        <v>1551.245491941685</v>
+        <v>1040.089578155562</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3220755526918</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
         <v>114.9862139017798</v>
@@ -5357,7 +5357,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
         <v>318.2287647883252</v>
@@ -5384,25 +5384,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2244.901093856344</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.5374125727599</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>455.9229232090364</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256327</v>
+        <v>399.5654251458267</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256327</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256327</v>
+        <v>101.57561144789</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5457,31 +5457,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437976</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="X16" t="n">
-        <v>123.2314487457803</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1664.24845458823</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="C17" t="n">
-        <v>1295.285937647818</v>
+        <v>1270.978371009995</v>
       </c>
       <c r="D17" t="n">
-        <v>937.020239041068</v>
+        <v>1270.978371009995</v>
       </c>
       <c r="E17" t="n">
-        <v>551.2319864428237</v>
+        <v>885.1901184117503</v>
       </c>
       <c r="F17" t="n">
-        <v>140.2460816532161</v>
+        <v>474.2042136221427</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>474.2042136221427</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W17" t="n">
-        <v>2440.987626628164</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X17" t="n">
-        <v>2440.987626628164</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="Y17" t="n">
-        <v>2050.848294652352</v>
+        <v>1639.940887950406</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M18" t="n">
         <v>1034.670495654875</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2061.991705784318</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>592.6833282610578</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>303.5042407384502</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>729.017379164404</v>
+        <v>828.7681742625825</v>
       </c>
       <c r="C20" t="n">
-        <v>729.017379164404</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="D20" t="n">
-        <v>729.017379164404</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E20" t="n">
-        <v>729.017379164404</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
-        <v>729.017379164404</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5791,13 +5791,13 @@
         <v>1455.251792695598</v>
       </c>
       <c r="W20" t="n">
-        <v>1102.483137425484</v>
+        <v>1218.907506238394</v>
       </c>
       <c r="X20" t="n">
-        <v>729.017379164404</v>
+        <v>1218.907506238394</v>
       </c>
       <c r="Y20" t="n">
-        <v>729.017379164404</v>
+        <v>828.7681742625825</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5855,22 +5855,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2280.589895521037</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T21" t="n">
-        <v>2081.228572368206</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U21" t="n">
-        <v>1853.051068437921</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V21" t="n">
-        <v>1617.898960206178</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W21" t="n">
-        <v>1363.661603477976</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
         <v>1298.584279249624</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.2314487457803</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C22" t="n">
-        <v>123.2314487457803</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D22" t="n">
-        <v>123.2314487457803</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E22" t="n">
-        <v>123.2314487457803</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F22" t="n">
-        <v>123.2314487457803</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256327</v>
@@ -5937,25 +5937,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>605.0953977375349</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="W22" t="n">
-        <v>351.2209996437976</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="X22" t="n">
-        <v>123.2314487457803</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="Y22" t="n">
-        <v>123.2314487457803</v>
+        <v>377.3581648607134</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1246.955840192009</v>
+        <v>1383.690325753399</v>
       </c>
       <c r="C23" t="n">
-        <v>877.9933232515971</v>
+        <v>1014.727808812987</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9933232515971</v>
+        <v>1014.727808812987</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5989,13 +5989,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K23" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977594</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2184.567076793811</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>1930.787382805694</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>1599.724495462123</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W23" t="n">
-        <v>1246.955840192009</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X23" t="n">
-        <v>1246.955840192009</v>
+        <v>1383.690325753399</v>
       </c>
       <c r="Y23" t="n">
-        <v>1246.955840192009</v>
+        <v>1383.690325753399</v>
       </c>
     </row>
     <row r="24">
@@ -6050,13 +6050,13 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256327</v>
@@ -6068,16 +6068,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>318.2287647883253</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L24" t="n">
-        <v>697.3559079137186</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
         <v>1714.953720827627</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6162,37 +6162,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="V25" t="n">
-        <v>385.9536814748711</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="W25" t="n">
-        <v>96.53651143791052</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>377.3581648607134</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>377.3581648607134</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1264.09496851135</v>
+        <v>828.7681742625825</v>
       </c>
       <c r="C26" t="n">
-        <v>895.1324515709382</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="D26" t="n">
-        <v>536.8667529641878</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E26" t="n">
-        <v>151.0785003659435</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F26" t="n">
-        <v>151.0785003659435</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G26" t="n">
-        <v>151.0785003659435</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6247,31 +6247,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U26" t="n">
-        <v>2371.897027894854</v>
+        <v>1786.314680039168</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.834140551283</v>
+        <v>1455.251792695597</v>
       </c>
       <c r="W26" t="n">
-        <v>2040.834140551283</v>
+        <v>1102.483137425483</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.834140551283</v>
+        <v>828.7681742625825</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.694808575472</v>
+        <v>828.7681742625825</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K27" t="n">
         <v>285.1110033225003</v>
@@ -6326,31 +6326,31 @@
         <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T27" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E28" t="n">
-        <v>504.1585764578689</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F28" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G28" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H28" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6399,37 +6399,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U28" t="n">
-        <v>640.638169680758</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="W28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1182.282975001274</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="C29" t="n">
-        <v>1182.282975001274</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="D29" t="n">
-        <v>1182.282975001274</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E29" t="n">
-        <v>796.4947224030295</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F29" t="n">
-        <v>796.4947224030295</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6490,25 +6490,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T29" t="n">
-        <v>2371.897027894854</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U29" t="n">
-        <v>2118.117333906737</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V29" t="n">
-        <v>2118.117333906737</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W29" t="n">
-        <v>1765.348678636623</v>
+        <v>1345.190817371117</v>
       </c>
       <c r="X29" t="n">
-        <v>1765.348678636623</v>
+        <v>1345.190817371117</v>
       </c>
       <c r="Y29" t="n">
-        <v>1568.882815065396</v>
+        <v>1345.190817371117</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q30" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T30" t="n">
-        <v>2081.228572368206</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U30" t="n">
-        <v>1995.825244415101</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V30" t="n">
-        <v>1760.673136183358</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W30" t="n">
-        <v>1506.435779455157</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X30" t="n">
-        <v>1298.584279249624</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6636,37 +6636,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748711</v>
+        <v>96.7745939522633</v>
       </c>
       <c r="W31" t="n">
-        <v>96.53651143791052</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.744092790253</v>
+        <v>1263.355201987352</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.781575849841</v>
+        <v>894.3926850469406</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.781575849841</v>
+        <v>536.1269864401902</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9933232515971</v>
+        <v>150.338733841946</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X32" t="n">
-        <v>2067.521868367084</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y32" t="n">
-        <v>1677.382536391272</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="33">
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J33" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>318.2287647883253</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L33" t="n">
-        <v>697.3559079137186</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q33" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R33" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U33" t="n">
         <v>1795.401172494432</v>
@@ -6818,13 +6818,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X33" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G34" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H34" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6873,37 +6873,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="U34" t="n">
-        <v>357.2686289599586</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="V34" t="n">
-        <v>357.2686289599586</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="W34" t="n">
-        <v>357.2686289599586</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="X34" t="n">
-        <v>357.2686289599586</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1165.457239343441</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="C35" t="n">
-        <v>796.4947224030295</v>
+        <v>1295.285937647818</v>
       </c>
       <c r="D35" t="n">
-        <v>796.4947224030295</v>
+        <v>1295.285937647818</v>
       </c>
       <c r="E35" t="n">
-        <v>796.4947224030295</v>
+        <v>909.4976850495736</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>498.5117802599661</v>
       </c>
       <c r="G35" t="n">
         <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6958,31 +6958,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="U35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="V35" t="n">
-        <v>1639.940887950406</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.940887950406</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.940887950406</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.057079407563</v>
+        <v>2050.848294652351</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C36" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D36" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q36" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T36" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U36" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X36" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7110,37 +7110,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U37" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V37" t="n">
-        <v>566.2264734675412</v>
+        <v>96.7745939522633</v>
       </c>
       <c r="W37" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1203.859608527166</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.859608527166</v>
+        <v>740.5415314541749</v>
       </c>
       <c r="D38" t="n">
-        <v>845.5939099204151</v>
+        <v>740.5415314541749</v>
       </c>
       <c r="E38" t="n">
-        <v>459.8056573221708</v>
+        <v>354.7532788559307</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>354.7532788559307</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7174,10 +7174,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L38" t="n">
         <v>795.0052981540048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U38" t="n">
-        <v>2261.15690940193</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V38" t="n">
-        <v>1930.09402205836</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W38" t="n">
-        <v>1577.325366788245</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X38" t="n">
-        <v>1203.859608527166</v>
+        <v>1886.24322043452</v>
       </c>
       <c r="Y38" t="n">
-        <v>1203.859608527166</v>
+        <v>1496.103888458708</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>297.2095735395878</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7256,10 +7256,10 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
         <v>1034.670495654875</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.04191212118968</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C40" t="n">
-        <v>62.04191212118968</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D40" t="n">
-        <v>62.04191212118968</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E40" t="n">
-        <v>62.04191212118968</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256327</v>
@@ -7347,37 +7347,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581503</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="V40" t="n">
-        <v>351.4590821581503</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="W40" t="n">
-        <v>62.04191212118968</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="X40" t="n">
-        <v>62.04191212118968</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.04191212118968</v>
+        <v>368.0366071214529</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1654.234300487162</v>
+        <v>1666.628615766206</v>
       </c>
       <c r="C41" t="n">
-        <v>1285.27178354675</v>
+        <v>1297.666098825795</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>1297.666098825795</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>911.8778462275504</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>911.8778462275504</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>493.6901802981242</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>164.2028763570842</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7414,49 +7414,49 @@
         <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>2371.897027894854</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>2371.897027894854</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V41" t="n">
-        <v>2040.834140551283</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W41" t="n">
-        <v>2040.834140551283</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.834140551283</v>
+        <v>1666.628615766206</v>
       </c>
       <c r="Y41" t="n">
-        <v>2040.834140551283</v>
+        <v>1666.628615766206</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>957.3366797756757</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C42" t="n">
-        <v>782.8836504945488</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D42" t="n">
-        <v>633.9492408332975</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E42" t="n">
-        <v>474.711785827842</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F42" t="n">
-        <v>328.177227854727</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G42" t="n">
         <v>221.5857653620315</v>
@@ -7517,25 +7517,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2351.500645316596</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V42" t="n">
-        <v>1795.401172494432</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W42" t="n">
-        <v>1541.163815766231</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X42" t="n">
-        <v>1333.312315560698</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y42" t="n">
-        <v>1125.552016795744</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
         <v>48.81975253256327</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>351.4590821581505</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="W43" t="n">
-        <v>62.04191212118991</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X43" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>1102.483137425484</v>
       </c>
       <c r="C44" t="n">
-        <v>736.5727550803538</v>
+        <v>733.5206204850722</v>
       </c>
       <c r="D44" t="n">
-        <v>378.3070564736033</v>
+        <v>375.2549218783217</v>
       </c>
       <c r="E44" t="n">
-        <v>378.3070564736033</v>
+        <v>375.2549218783217</v>
       </c>
       <c r="F44" t="n">
-        <v>378.3070564736033</v>
+        <v>375.2549218783217</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>375.2549218783217</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7736,7 +7736,7 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7760,19 +7760,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.6381696807582</v>
+        <v>231.252471973697</v>
       </c>
       <c r="C46" t="n">
-        <v>640.6381696807582</v>
+        <v>231.252471973697</v>
       </c>
       <c r="D46" t="n">
-        <v>512.7230087894206</v>
+        <v>231.252471973697</v>
       </c>
       <c r="E46" t="n">
-        <v>364.8099152070275</v>
+        <v>231.252471973697</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>84.36252447578664</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,7 +8771,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L18" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.72888660085718</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>447.9802256040019</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725698</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617064</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>94.72888660085718</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918564</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>97.61252597574153</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>241.7503831703146</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>105.1308741609316</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>154.319275032048</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -23469,16 +23469,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9845675425499</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>48.60891127708788</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>264.8088695178012</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>21.74148333600724</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.21612896867116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>111.6152899422107</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.91707410101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4937234406857</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>65.53710677787143</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>38.02889906600382</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>22.9528582556021</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,13 +23943,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>177.9845675425499</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>66.80256980623926</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>115.2601251247814</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>39.6260774054073</v>
       </c>
       <c r="X21" t="n">
-        <v>141.3464342174086</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.74163377370351</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24177,10 +24177,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>178.6906532527611</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>165.8796145264037</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>31.96180703159771</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>92.88627525581315</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24387,7 +24387,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
@@ -24423,13 +24423,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>239.7537910412991</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4700640727434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>224.9562705465831</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>98.75328714719723</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>11.31916535590898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,13 +24654,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>177.9845675425502</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>308.6802958921527</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>191.7367337205387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21.74148333600778</v>
       </c>
       <c r="U30" t="n">
-        <v>141.3464342174085</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24894,16 +24894,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>239.047705331088</v>
       </c>
       <c r="X31" t="n">
-        <v>178.4700640727434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>338.5417824984718</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>306.3722542454226</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25128,10 +25128,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>83.85393631247263</v>
       </c>
       <c r="U34" t="n">
-        <v>5.751451333790214</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>295.0031127216328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>299.2329681986387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25368,16 +25368,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>178.4700640727434</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>239.047705331088</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>111.1315982099983</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6091797402415</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>21.7414833360076</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>132.3311100301911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25572,7 +25572,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25605,13 +25605,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.41174971366968</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>333.4077360007435</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>46.24599976864982</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>31.1240408075615</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>133.3440246538288</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,16 +25842,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>178.4700640727431</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>3.021613249328823</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.021613249328766</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>21.97946373578817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.2218688009972</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26076,7 +26076,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681099.985914809</v>
+        <v>681099.9859148089</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681099.9859148092</v>
+        <v>681099.985914809</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681099.985914809</v>
+        <v>681099.9859148089</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681099.985914809</v>
+        <v>681099.9859148089</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681099.985914809</v>
+        <v>681099.9859148092</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681099.985914809</v>
+        <v>681099.9859148087</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681099.9859148089</v>
+        <v>681099.985914809</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26325,34 +26325,34 @@
         <v>311813.7524761209</v>
       </c>
       <c r="F2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761211</v>
       </c>
       <c r="G2" t="n">
         <v>311813.7524761209</v>
       </c>
       <c r="H2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="I2" t="n">
+        <v>311813.752476121</v>
+      </c>
+      <c r="J2" t="n">
         <v>311813.7524761208</v>
       </c>
-      <c r="J2" t="n">
-        <v>311813.7524761207</v>
-      </c>
       <c r="K2" t="n">
-        <v>311813.752476121</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="L2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="M2" t="n">
+        <v>311813.7524761208</v>
+      </c>
+      <c r="N2" t="n">
+        <v>311813.7524761208</v>
+      </c>
+      <c r="O2" t="n">
         <v>311813.7524761209</v>
-      </c>
-      <c r="N2" t="n">
-        <v>311813.7524761209</v>
-      </c>
-      <c r="O2" t="n">
-        <v>311813.7524761208</v>
       </c>
       <c r="P2" t="n">
         <v>311813.7524761209</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>44379.07056643641</v>
       </c>
       <c r="G4" t="n">
+        <v>44379.07056643641</v>
+      </c>
+      <c r="H4" t="n">
         <v>44379.07056643642</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44379.07056643641</v>
       </c>
       <c r="I4" t="n">
         <v>44379.07056643641</v>
@@ -26453,7 +26453,7 @@
         <v>44379.07056643641</v>
       </c>
       <c r="N4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="O4" t="n">
         <v>44379.07056643641</v>
@@ -26493,16 +26493,16 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22085.36438629789</v>
+        <v>22085.364386298</v>
       </c>
       <c r="C6" t="n">
         <v>102854.7959178457</v>
@@ -26530,40 +26530,40 @@
         <v>102854.7959178457</v>
       </c>
       <c r="E6" t="n">
-        <v>-153105.5798171663</v>
+        <v>-146833.5477008073</v>
       </c>
       <c r="F6" t="n">
-        <v>216329.7193156138</v>
+        <v>222601.7514319731</v>
       </c>
       <c r="G6" t="n">
-        <v>216329.7193156138</v>
+        <v>222601.7514319728</v>
       </c>
       <c r="H6" t="n">
-        <v>216329.7193156139</v>
+        <v>222601.7514319727</v>
       </c>
       <c r="I6" t="n">
-        <v>216329.7193156138</v>
+        <v>222601.751431973</v>
       </c>
       <c r="J6" t="n">
-        <v>153269.7767165074</v>
+        <v>159541.8088328666</v>
       </c>
       <c r="K6" t="n">
-        <v>216329.7193156139</v>
+        <v>222601.7514319728</v>
       </c>
       <c r="L6" t="n">
-        <v>216329.7193156138</v>
+        <v>222601.7514319728</v>
       </c>
       <c r="M6" t="n">
-        <v>124315.4740345208</v>
+        <v>130587.5061508798</v>
       </c>
       <c r="N6" t="n">
-        <v>216329.7193156138</v>
+        <v>222601.7514319728</v>
       </c>
       <c r="O6" t="n">
-        <v>216329.7193156137</v>
+        <v>222601.7514319728</v>
       </c>
       <c r="P6" t="n">
-        <v>216329.7193156139</v>
+        <v>222601.7514319729</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>322.6158759445108</v>
       </c>
       <c r="I3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="J3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="K3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="L3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="M3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="N3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="O3" t="n">
         <v>322.6158759445108</v>
@@ -26813,16 +26813,16 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7118049091667</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,19 +27435,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>42.64994056860039</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>179.1139601010482</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>141.1176411966843</v>
       </c>
     </row>
     <row r="4">
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>298.9492535497108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27700,16 +27700,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27748,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>6.7377665316547</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>178.7283616049636</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>134.5736593549025</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>319.4393855107668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>25.43425284086544</v>
       </c>
       <c r="X9" t="n">
-        <v>139.8874497549097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J23" t="n">
         <v>110.0768611093283</v>
@@ -32715,31 +32715,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L23" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N23" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P23" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q23" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S23" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K24" t="n">
         <v>112.0542330627269</v>
@@ -32809,19 +32809,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T24" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
@@ -32873,31 +32873,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T25" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U25" t="n">
         <v>0.03173270910929617</v>
@@ -32940,10 +32940,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J26" t="n">
         <v>110.0768611093283</v>
@@ -32952,31 +32952,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L26" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M26" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N26" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P26" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q26" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S26" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K27" t="n">
         <v>112.0542330627269</v>
@@ -33046,19 +33046,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T27" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
@@ -33110,31 +33110,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T28" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U28" t="n">
         <v>0.03173270910929617</v>
@@ -33177,10 +33177,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J29" t="n">
         <v>110.0768611093283</v>
@@ -33189,31 +33189,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L29" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M29" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N29" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P29" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q29" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S29" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K30" t="n">
         <v>112.0542330627269</v>
@@ -33283,19 +33283,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T30" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
@@ -33347,31 +33347,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T31" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U31" t="n">
         <v>0.03173270910929617</v>
@@ -33414,10 +33414,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J32" t="n">
         <v>110.0768611093283</v>
@@ -33426,31 +33426,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L32" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M32" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N32" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P32" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q32" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S32" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K33" t="n">
         <v>112.0542330627269</v>
@@ -33520,19 +33520,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T33" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
@@ -33584,31 +33584,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T34" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U34" t="n">
         <v>0.03173270910929617</v>
@@ -33651,10 +33651,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J35" t="n">
         <v>110.0768611093283</v>
@@ -33663,31 +33663,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L35" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M35" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N35" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P35" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q35" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S35" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K36" t="n">
         <v>112.0542330627269</v>
@@ -33757,19 +33757,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T36" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
@@ -33821,31 +33821,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T37" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U37" t="n">
         <v>0.03173270910929617</v>
@@ -33888,10 +33888,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J38" t="n">
         <v>110.0768611093283</v>
@@ -33900,31 +33900,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L38" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M38" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N38" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P38" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q38" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S38" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K39" t="n">
         <v>112.0542330627269</v>
@@ -33994,19 +33994,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T39" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
@@ -34058,31 +34058,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T40" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U40" t="n">
         <v>0.03173270910929617</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L18" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L23" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M23" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O23" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P23" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q23" t="n">
         <v>130.0651205780292</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.45228430891415</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
@@ -36448,7 +36448,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>497.1177477436266</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36527,13 +36527,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O25" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L26" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M26" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O26" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P26" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q26" t="n">
         <v>130.0651205780292</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>33.45228430891365</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O28" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L29" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M29" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O29" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P29" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q29" t="n">
         <v>130.0651205780292</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36922,7 +36922,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O31" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L32" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M32" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O32" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P32" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q32" t="n">
         <v>130.0651205780292</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.45228430891415</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,13 +37238,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O34" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L35" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M35" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O35" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P35" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q35" t="n">
         <v>130.0651205780292</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,13 +37475,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O37" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L38" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M38" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O38" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P38" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q38" t="n">
         <v>130.0651205780292</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K39" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595964</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37712,13 +37712,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O40" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
-        <v>269.0322418464915</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
         <v>386.5629597537834</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
